--- a/concrete.xlsx
+++ b/concrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da88ebe6b0422cef/pycode/projects/rc_section_capacity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{8CE9024F-DD20-48E0-8329-6F65D8F4E556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805154E5-0FCF-4DA6-BD9E-7EAE0F4EC74C}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{8CE9024F-DD20-48E0-8329-6F65D8F4E556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45D2A906-680B-4EB4-AA60-F782AEA2C5D6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{E0B2E843-5B1E-484D-9617-2B4984A3366F}"/>
   </bookViews>
@@ -179,10 +179,10 @@
     <t>eps_bt2_st</t>
   </si>
   <si>
-    <t>Concrete_class</t>
-  </si>
-  <si>
     <t>eps_bt1red_st</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
@@ -240,10 +240,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A5A8C2-EA4C-45DD-9172-7DA8AB5EB4CD}">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -593,11 +589,13 @@
     <col min="26" max="26" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -684,7 +682,7 @@
         <v>46</v>
       </c>
       <c r="AD1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.45">
@@ -704,8 +702,7 @@
         <v>0.26</v>
       </c>
       <c r="F2">
-        <f>E2*1000</f>
-        <v>260</v>
+        <v>9500</v>
       </c>
       <c r="G2">
         <v>2E-3</v>
@@ -797,8 +794,7 @@
         <v>0.37</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F20" si="0">E3*1000</f>
-        <v>370</v>
+        <v>13000</v>
       </c>
       <c r="G3">
         <v>2E-3</v>
@@ -890,8 +886,7 @@
         <v>0.48</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <v>16000</v>
       </c>
       <c r="G4">
         <v>2E-3</v>
@@ -983,8 +978,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <v>19000</v>
       </c>
       <c r="G5">
         <v>2E-3</v>
@@ -1076,8 +1070,7 @@
         <v>0.66</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>660</v>
+        <v>21500</v>
       </c>
       <c r="G6">
         <v>2E-3</v>
@@ -1169,8 +1162,7 @@
         <v>0.75</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>750</v>
+        <v>24000</v>
       </c>
       <c r="G7">
         <v>2E-3</v>
@@ -1262,8 +1254,7 @@
         <v>0.9</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>27500</v>
       </c>
       <c r="G8">
         <v>2E-3</v>
@@ -1355,8 +1346,7 @@
         <v>1.05</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>30000</v>
       </c>
       <c r="G9">
         <v>2E-3</v>
@@ -1448,8 +1438,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>32500</v>
       </c>
       <c r="G10">
         <v>2E-3</v>
@@ -1541,8 +1530,7 @@
         <v>1.3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>34500</v>
       </c>
       <c r="G11">
         <v>2E-3</v>
@@ -1634,8 +1622,7 @@
         <v>1.4</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>36000</v>
       </c>
       <c r="G12">
         <v>2E-3</v>
@@ -1727,8 +1714,7 @@
         <v>1.5</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>37000</v>
       </c>
       <c r="G13">
         <v>2E-3</v>
@@ -1820,8 +1806,7 @@
         <v>1.6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>38000</v>
       </c>
       <c r="G14">
         <v>2E-3</v>
@@ -1913,8 +1898,7 @@
         <v>1.7</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>39000</v>
       </c>
       <c r="G15">
         <v>2E-3</v>
@@ -2006,8 +1990,7 @@
         <v>1.8</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>39500</v>
       </c>
       <c r="G16">
         <v>2E-3</v>
@@ -2099,8 +2082,7 @@
         <v>1.9</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>41000</v>
       </c>
       <c r="G17">
         <v>2E-3</v>
@@ -2192,8 +2174,7 @@
         <v>2.1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>42000</v>
       </c>
       <c r="G18">
         <v>2E-3</v>
@@ -2285,8 +2266,7 @@
         <v>2.15</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>2150</v>
+        <v>42500</v>
       </c>
       <c r="G19">
         <v>2E-3</v>
@@ -2378,8 +2358,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>2200</v>
+        <v>43000</v>
       </c>
       <c r="G20">
         <v>2E-3</v>

--- a/concrete.xlsx
+++ b/concrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da88ebe6b0422cef/pycode/projects/rc_section_capacity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{8CE9024F-DD20-48E0-8329-6F65D8F4E556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45D2A906-680B-4EB4-AA60-F782AEA2C5D6}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{8CE9024F-DD20-48E0-8329-6F65D8F4E556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C920DFBA-23CD-4C21-971D-A600FF0012EE}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{E0B2E843-5B1E-484D-9617-2B4984A3366F}"/>
   </bookViews>
@@ -119,48 +119,30 @@
     <t>eps_b0_lt_75up</t>
   </si>
   <si>
-    <t>eps_b0_lt_to45</t>
-  </si>
-  <si>
-    <t>eps_b2_lt_to45</t>
-  </si>
-  <si>
     <t>eps_b2_lt_40to75</t>
   </si>
   <si>
     <t>eps_b2_lt_75up</t>
   </si>
   <si>
-    <t>eps_b1red_lt_to45</t>
-  </si>
-  <si>
     <t>eps_b1red_lt_40to75</t>
   </si>
   <si>
     <t>eps_b1red_lt_75up</t>
   </si>
   <si>
-    <t>eps_bt0_lt_to45</t>
-  </si>
-  <si>
     <t>eps_bt0_lt_40to75</t>
   </si>
   <si>
     <t>eps_bt0_lt_75up</t>
   </si>
   <si>
-    <t>eps_bt2_lt_to45</t>
-  </si>
-  <si>
     <t>eps_bt2_lt_40to75</t>
   </si>
   <si>
     <t>eps_bt2_lt_75up</t>
   </si>
   <si>
-    <t>eps_bt1red_lt_to45</t>
-  </si>
-  <si>
     <t>eps_bt1red_lt_40to75</t>
   </si>
   <si>
@@ -183,6 +165,24 @@
   </si>
   <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>eps_b0_lt_to40</t>
+  </si>
+  <si>
+    <t>eps_b2_lt_to40</t>
+  </si>
+  <si>
+    <t>eps_b1red_lt_to40</t>
+  </si>
+  <si>
+    <t>eps_bt0_lt_to40</t>
+  </si>
+  <si>
+    <t>eps_bt2_lt_to40</t>
+  </si>
+  <si>
+    <t>eps_bt1red_lt_to40</t>
   </si>
 </sst>
 </file>
@@ -240,6 +240,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A5A8C2-EA4C-45DD-9172-7DA8AB5EB4CD}">
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -593,9 +597,9 @@
     <col min="30" max="30" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -616,7 +620,7 @@
         <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
         <v>25</v>
@@ -625,67 +629,67 @@
         <v>26</v>
       </c>
       <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -776,8 +780,16 @@
       <c r="AD2">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE2">
+        <f>D2/AB2</f>
+        <v>1400</v>
+      </c>
+      <c r="AF2">
+        <f>E2/AD2</f>
+        <v>3250</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -868,8 +880,16 @@
       <c r="AD3">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE20" si="0">D3/AB3</f>
+        <v>1800</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF20" si="1">E3/AD3</f>
+        <v>4625</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -960,8 +980,16 @@
       <c r="AD4">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="1"/>
+        <v>5999.9999999999991</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1052,8 +1080,16 @@
       <c r="AD5">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>3866.6666666666665</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1144,8 +1180,16 @@
       <c r="AD6">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>4866.6666666666661</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="1"/>
+        <v>8250</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1236,8 +1280,16 @@
       <c r="AD7">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>5666.666666666667</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="1"/>
+        <v>9375</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1328,8 +1380,16 @@
       <c r="AD8">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>7666.6666666666661</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="1"/>
+        <v>11250</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1420,8 +1480,16 @@
       <c r="AD9">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>9466.6666666666661</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="1"/>
+        <v>13125</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1512,8 +1580,16 @@
       <c r="AD10">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE10">
+        <f t="shared" si="0"/>
+        <v>11266.666666666666</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="1"/>
+        <v>14374.999999999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1604,8 +1680,16 @@
       <c r="AD11">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE11">
+        <f t="shared" si="0"/>
+        <v>13066.666666666668</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="1"/>
+        <v>16250</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1696,8 +1780,16 @@
       <c r="AD12">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE12">
+        <f t="shared" si="0"/>
+        <v>14866.666666666666</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="1"/>
+        <v>17499.999999999996</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1788,8 +1880,16 @@
       <c r="AD13">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE13">
+        <f t="shared" si="0"/>
+        <v>16400</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="1"/>
+        <v>18750</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1880,8 +1980,16 @@
       <c r="AD14">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE14">
+        <f t="shared" si="0"/>
+        <v>18466.666666666664</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1972,8 +2080,16 @@
       <c r="AD15">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>20266.666666666664</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>21249.999999999996</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2064,8 +2180,16 @@
       <c r="AD16">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE16">
+        <f t="shared" si="0"/>
+        <v>22066.666666666668</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2156,8 +2280,16 @@
       <c r="AD17">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE17">
+        <f t="shared" si="0"/>
+        <v>24666.666666666668</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="1"/>
+        <v>23749.999999999996</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2248,8 +2380,16 @@
       <c r="AD18">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE18">
+        <f t="shared" si="0"/>
+        <v>27333.333333333332</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="1"/>
+        <v>26250</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2340,8 +2480,16 @@
       <c r="AD19">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="AE19">
+        <f t="shared" si="0"/>
+        <v>29333.333333333332</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="1"/>
+        <v>26874.999999999996</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2431,6 +2579,14 @@
       </c>
       <c r="AD20">
         <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="0"/>
+        <v>31666.666666666664</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="1"/>
+        <v>27500</v>
       </c>
     </row>
   </sheetData>
